--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -1,114 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVUUV4W\PycharmProjects\IOL_EOL Parser\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">PVS0340 </t>
-  </si>
-  <si>
-    <t>11K.915.910.D</t>
-  </si>
-  <si>
-    <t>Highline</t>
-  </si>
-  <si>
-    <t>06/16/2021</t>
-  </si>
-  <si>
-    <t>18:04:29</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>5022</t>
-  </si>
-  <si>
-    <t>1525</t>
-  </si>
-  <si>
-    <t>0107</t>
-  </si>
-  <si>
-    <t>0896</t>
-  </si>
-  <si>
-    <t>82K096S3PSK0</t>
-  </si>
-  <si>
-    <t>DEFAULTTHERM</t>
-  </si>
-  <si>
-    <t>SK07809603KA</t>
-  </si>
-  <si>
-    <t>DEFAULTYYYYY</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>00000027042102910102</t>
-  </si>
-  <si>
-    <t>00000026042102910156</t>
-  </si>
-  <si>
-    <t>00000008042102910235</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>0Z1915184D</t>
-  </si>
-  <si>
-    <t>0Z1915184G</t>
-  </si>
-  <si>
-    <t>0Z1915140D</t>
-  </si>
-  <si>
-    <t>0Z1915140F</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -127,22 +47,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,141 +409,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A2:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="17" width="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>23</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PVS0340 </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11K.915.910.D</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Highline</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>06/16/2021</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>18:04:29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1525</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1525</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1525</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0896</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>82K096S3PSK0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>DEFAULTTHERM</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>SK07809603KA</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>DEFAULTYYYYY</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>00000027042102910102</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>00000026042102910156</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>00000008042102910235</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>0Z1915184D</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0Z1915184G</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0Z1915140D</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0Z1915140D</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0Z1915140D</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0Z1915140F</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0Z1915140F</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0Z1915140F</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -1,34 +1,222 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVUUV4W\PycharmProjects\IOL_EOL Parser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>DTC Count</t>
+  </si>
+  <si>
+    <t>BCMe Begin SW</t>
+  </si>
+  <si>
+    <t>CMC1 Begin SW</t>
+  </si>
+  <si>
+    <t>CMC2 Begin SW</t>
+  </si>
+  <si>
+    <t>CMC3 Begin SW</t>
+  </si>
+  <si>
+    <t>BCMe Begin BL</t>
+  </si>
+  <si>
+    <t>CMC1 Begin BL</t>
+  </si>
+  <si>
+    <t>CMC2 Begin BL</t>
+  </si>
+  <si>
+    <t>CMC3 Begin BL</t>
+  </si>
+  <si>
+    <t>BatConfigPSet</t>
+  </si>
+  <si>
+    <t>VehiclePSet</t>
+  </si>
+  <si>
+    <t>TargetMarket</t>
+  </si>
+  <si>
+    <t>ConfigNamePSet</t>
+  </si>
+  <si>
+    <t>ThermoPSet</t>
+  </si>
+  <si>
+    <t>NameVehiclePSet</t>
+  </si>
+  <si>
+    <t>NameTargetMarket</t>
+  </si>
+  <si>
+    <t>CMC1 HW</t>
+  </si>
+  <si>
+    <t>CMC2 HW</t>
+  </si>
+  <si>
+    <t>CMC3 HW</t>
+  </si>
+  <si>
+    <t>CMC1 Serial</t>
+  </si>
+  <si>
+    <t>CMC2 Serial</t>
+  </si>
+  <si>
+    <t>CMC3 Serial</t>
+  </si>
+  <si>
+    <t>BCMe HW</t>
+  </si>
+  <si>
+    <t>BCMe HW Serial</t>
+  </si>
+  <si>
+    <t>BCMe SW Serial</t>
+  </si>
+  <si>
+    <t>CMC1 HW Serial</t>
+  </si>
+  <si>
+    <t>CMC2 HW Serial</t>
+  </si>
+  <si>
+    <t>CMC3 HW Serial</t>
+  </si>
+  <si>
+    <t>CMC1 SW Serial</t>
+  </si>
+  <si>
+    <t>CMC2 SW Serial</t>
+  </si>
+  <si>
+    <t>CMC3 SW Serial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVS0340 </t>
+  </si>
+  <si>
+    <t>11K.915.910.D</t>
+  </si>
+  <si>
+    <t>Highline</t>
+  </si>
+  <si>
+    <t>06/16/2021</t>
+  </si>
+  <si>
+    <t>18:04:29</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>5022</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0896</t>
+  </si>
+  <si>
+    <t>82K096S3PSK0</t>
+  </si>
+  <si>
+    <t>DEFAULTTHERM</t>
+  </si>
+  <si>
+    <t>SK07809603KA</t>
+  </si>
+  <si>
+    <t>DEFAULTYYYYY</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>00000027042102910102</t>
+  </si>
+  <si>
+    <t>00000026042102910156</t>
+  </si>
+  <si>
+    <t>00000008042102910235</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>0Z1915184D</t>
+  </si>
+  <si>
+    <t>0Z1915184G</t>
+  </si>
+  <si>
+    <t>0Z1915140D</t>
+  </si>
+  <si>
+    <t>0Z1915140F</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,82 +234,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,199 +543,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:AJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PVS0340 </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>11K.915.910.D</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Highline</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>06/16/2021</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>18:04:29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>5022</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1525</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1525</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1525</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0107</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0896</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0107</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>82K096S3PSK0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>DEFAULTTHERM</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>SK07809603KA</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>DEFAULTYYYYY</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>00000027042102910102</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00000026042102910156</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>00000008042102910235</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>010</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>0Z1915184D</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0Z1915184G</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0Z1915140D</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0Z1915140D</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0Z1915140D</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0Z1915140F</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0Z1915140F</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0Z1915140F</t>
-        </is>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,6 +638,36 @@
           <t>SW_Check</t>
         </is>
       </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>CellTempMin</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>CellTempMax</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>CellTempRange</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>CellVoltageMin</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>CellVoltageMax</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>CellVoltageRange</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -853,6 +883,36 @@
       <c r="AQ2" t="inlineStr">
         <is>
           <t>"IO"</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>50.00</t>
         </is>
       </c>
     </row>

--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:BV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +668,131 @@
           <t>CellVoltageRange</t>
         </is>
       </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>CellTempCheck</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>CellTemp1</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>CellTemp2</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>CellTemp3</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>CellTemp4</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>CellTemp5</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>CellTemp6</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>CellTemp7</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>CellTemp8</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>CellTemp9</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>CellTemp10</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>CellTemp11</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>CellTemp12</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>CellTemp13</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>CellTemp14</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>CellTemp15</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>CellTemp16</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>CellTemp17</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>CellTemp18</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>CellTemp19</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>CellTemp20</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>CellTemp21</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>CellTemp22</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>CellTemp23</t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>CellTemp24</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +1038,131 @@
       <c r="AW2" t="inlineStr">
         <is>
           <t>50.00</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>22.50</t>
         </is>
       </c>
     </row>

--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV2"/>
+  <dimension ref="A1:FO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,6 +793,491 @@
           <t>CellTemp24</t>
         </is>
       </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>CellTempRange</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>CellVolt1</t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>CellVolt2</t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>CellVolt3</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>CellVolt4</t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>CellVolt5</t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t>CellVolt6</t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t>CellVolt7</t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t>CellVolt8</t>
+        </is>
+      </c>
+      <c r="CF1" t="inlineStr">
+        <is>
+          <t>CellVolt9</t>
+        </is>
+      </c>
+      <c r="CG1" t="inlineStr">
+        <is>
+          <t>CellVolt10</t>
+        </is>
+      </c>
+      <c r="CH1" t="inlineStr">
+        <is>
+          <t>CellVolt11</t>
+        </is>
+      </c>
+      <c r="CI1" t="inlineStr">
+        <is>
+          <t>CellVolt12</t>
+        </is>
+      </c>
+      <c r="CJ1" t="inlineStr">
+        <is>
+          <t>CellVolt13</t>
+        </is>
+      </c>
+      <c r="CK1" t="inlineStr">
+        <is>
+          <t>CellVolt14</t>
+        </is>
+      </c>
+      <c r="CL1" t="inlineStr">
+        <is>
+          <t>CellVolt15</t>
+        </is>
+      </c>
+      <c r="CM1" t="inlineStr">
+        <is>
+          <t>CellVolt16</t>
+        </is>
+      </c>
+      <c r="CN1" t="inlineStr">
+        <is>
+          <t>CellVolt17</t>
+        </is>
+      </c>
+      <c r="CO1" t="inlineStr">
+        <is>
+          <t>CellVolt18</t>
+        </is>
+      </c>
+      <c r="CP1" t="inlineStr">
+        <is>
+          <t>CellVolt19</t>
+        </is>
+      </c>
+      <c r="CQ1" t="inlineStr">
+        <is>
+          <t>CellVolt20</t>
+        </is>
+      </c>
+      <c r="CR1" t="inlineStr">
+        <is>
+          <t>CellVolt21</t>
+        </is>
+      </c>
+      <c r="CS1" t="inlineStr">
+        <is>
+          <t>CellVolt22</t>
+        </is>
+      </c>
+      <c r="CT1" t="inlineStr">
+        <is>
+          <t>CellVolt23</t>
+        </is>
+      </c>
+      <c r="CU1" t="inlineStr">
+        <is>
+          <t>CellVolt24</t>
+        </is>
+      </c>
+      <c r="CV1" t="inlineStr">
+        <is>
+          <t>CellVolt25</t>
+        </is>
+      </c>
+      <c r="CW1" t="inlineStr">
+        <is>
+          <t>CellVolt26</t>
+        </is>
+      </c>
+      <c r="CX1" t="inlineStr">
+        <is>
+          <t>CellVolt27</t>
+        </is>
+      </c>
+      <c r="CY1" t="inlineStr">
+        <is>
+          <t>CellVolt28</t>
+        </is>
+      </c>
+      <c r="CZ1" t="inlineStr">
+        <is>
+          <t>CellVolt29</t>
+        </is>
+      </c>
+      <c r="DA1" t="inlineStr">
+        <is>
+          <t>CellVolt30</t>
+        </is>
+      </c>
+      <c r="DB1" t="inlineStr">
+        <is>
+          <t>CellVolt31</t>
+        </is>
+      </c>
+      <c r="DC1" t="inlineStr">
+        <is>
+          <t>CellVolt32</t>
+        </is>
+      </c>
+      <c r="DD1" t="inlineStr">
+        <is>
+          <t>CellVolt33</t>
+        </is>
+      </c>
+      <c r="DE1" t="inlineStr">
+        <is>
+          <t>CellVolt34</t>
+        </is>
+      </c>
+      <c r="DF1" t="inlineStr">
+        <is>
+          <t>CellVolt35</t>
+        </is>
+      </c>
+      <c r="DG1" t="inlineStr">
+        <is>
+          <t>CellVolt36</t>
+        </is>
+      </c>
+      <c r="DH1" t="inlineStr">
+        <is>
+          <t>CellVolt37</t>
+        </is>
+      </c>
+      <c r="DI1" t="inlineStr">
+        <is>
+          <t>CellVolt38</t>
+        </is>
+      </c>
+      <c r="DJ1" t="inlineStr">
+        <is>
+          <t>CellVolt39</t>
+        </is>
+      </c>
+      <c r="DK1" t="inlineStr">
+        <is>
+          <t>CellVolt40</t>
+        </is>
+      </c>
+      <c r="DL1" t="inlineStr">
+        <is>
+          <t>CellVolt41</t>
+        </is>
+      </c>
+      <c r="DM1" t="inlineStr">
+        <is>
+          <t>CellVolt42</t>
+        </is>
+      </c>
+      <c r="DN1" t="inlineStr">
+        <is>
+          <t>CellVolt43</t>
+        </is>
+      </c>
+      <c r="DO1" t="inlineStr">
+        <is>
+          <t>CellVolt44</t>
+        </is>
+      </c>
+      <c r="DP1" t="inlineStr">
+        <is>
+          <t>CellVolt45</t>
+        </is>
+      </c>
+      <c r="DQ1" t="inlineStr">
+        <is>
+          <t>CellVolt46</t>
+        </is>
+      </c>
+      <c r="DR1" t="inlineStr">
+        <is>
+          <t>CellVolt47</t>
+        </is>
+      </c>
+      <c r="DS1" t="inlineStr">
+        <is>
+          <t>CellVolt48</t>
+        </is>
+      </c>
+      <c r="DT1" t="inlineStr">
+        <is>
+          <t>CellVolt49</t>
+        </is>
+      </c>
+      <c r="DU1" t="inlineStr">
+        <is>
+          <t>CellVolt50</t>
+        </is>
+      </c>
+      <c r="DV1" t="inlineStr">
+        <is>
+          <t>CellVolt51</t>
+        </is>
+      </c>
+      <c r="DW1" t="inlineStr">
+        <is>
+          <t>CellVolt52</t>
+        </is>
+      </c>
+      <c r="DX1" t="inlineStr">
+        <is>
+          <t>CellVolt53</t>
+        </is>
+      </c>
+      <c r="DY1" t="inlineStr">
+        <is>
+          <t>CellVolt54</t>
+        </is>
+      </c>
+      <c r="DZ1" t="inlineStr">
+        <is>
+          <t>CellVolt55</t>
+        </is>
+      </c>
+      <c r="EA1" t="inlineStr">
+        <is>
+          <t>CellVolt56</t>
+        </is>
+      </c>
+      <c r="EB1" t="inlineStr">
+        <is>
+          <t>CellVolt57</t>
+        </is>
+      </c>
+      <c r="EC1" t="inlineStr">
+        <is>
+          <t>CellVolt58</t>
+        </is>
+      </c>
+      <c r="ED1" t="inlineStr">
+        <is>
+          <t>CellVolt59</t>
+        </is>
+      </c>
+      <c r="EE1" t="inlineStr">
+        <is>
+          <t>CellVolt60</t>
+        </is>
+      </c>
+      <c r="EF1" t="inlineStr">
+        <is>
+          <t>CellVolt61</t>
+        </is>
+      </c>
+      <c r="EG1" t="inlineStr">
+        <is>
+          <t>CellVolt62</t>
+        </is>
+      </c>
+      <c r="EH1" t="inlineStr">
+        <is>
+          <t>CellVolt63</t>
+        </is>
+      </c>
+      <c r="EI1" t="inlineStr">
+        <is>
+          <t>CellVolt64</t>
+        </is>
+      </c>
+      <c r="EJ1" t="inlineStr">
+        <is>
+          <t>CellVolt65</t>
+        </is>
+      </c>
+      <c r="EK1" t="inlineStr">
+        <is>
+          <t>CellVolt66</t>
+        </is>
+      </c>
+      <c r="EL1" t="inlineStr">
+        <is>
+          <t>CellVolt67</t>
+        </is>
+      </c>
+      <c r="EM1" t="inlineStr">
+        <is>
+          <t>CellVolt68</t>
+        </is>
+      </c>
+      <c r="EN1" t="inlineStr">
+        <is>
+          <t>CellVolt69</t>
+        </is>
+      </c>
+      <c r="EO1" t="inlineStr">
+        <is>
+          <t>CellVolt70</t>
+        </is>
+      </c>
+      <c r="EP1" t="inlineStr">
+        <is>
+          <t>CellVolt71</t>
+        </is>
+      </c>
+      <c r="EQ1" t="inlineStr">
+        <is>
+          <t>CellVolt72</t>
+        </is>
+      </c>
+      <c r="ER1" t="inlineStr">
+        <is>
+          <t>CellVolt73</t>
+        </is>
+      </c>
+      <c r="ES1" t="inlineStr">
+        <is>
+          <t>CellVolt74</t>
+        </is>
+      </c>
+      <c r="ET1" t="inlineStr">
+        <is>
+          <t>CellVolt75</t>
+        </is>
+      </c>
+      <c r="EU1" t="inlineStr">
+        <is>
+          <t>CellVolt76</t>
+        </is>
+      </c>
+      <c r="EV1" t="inlineStr">
+        <is>
+          <t>CellVolt77</t>
+        </is>
+      </c>
+      <c r="EW1" t="inlineStr">
+        <is>
+          <t>CellVolt78</t>
+        </is>
+      </c>
+      <c r="EX1" t="inlineStr">
+        <is>
+          <t>CellVolt79</t>
+        </is>
+      </c>
+      <c r="EY1" t="inlineStr">
+        <is>
+          <t>CellVolt80</t>
+        </is>
+      </c>
+      <c r="EZ1" t="inlineStr">
+        <is>
+          <t>CellVolt81</t>
+        </is>
+      </c>
+      <c r="FA1" t="inlineStr">
+        <is>
+          <t>CellVolt82</t>
+        </is>
+      </c>
+      <c r="FB1" t="inlineStr">
+        <is>
+          <t>CellVolt83</t>
+        </is>
+      </c>
+      <c r="FC1" t="inlineStr">
+        <is>
+          <t>CellVolt84</t>
+        </is>
+      </c>
+      <c r="FD1" t="inlineStr">
+        <is>
+          <t>CellVolt85</t>
+        </is>
+      </c>
+      <c r="FE1" t="inlineStr">
+        <is>
+          <t>CellVolt86</t>
+        </is>
+      </c>
+      <c r="FF1" t="inlineStr">
+        <is>
+          <t>CellVolt87</t>
+        </is>
+      </c>
+      <c r="FG1" t="inlineStr">
+        <is>
+          <t>CellVolt88</t>
+        </is>
+      </c>
+      <c r="FH1" t="inlineStr">
+        <is>
+          <t>CellVolt89</t>
+        </is>
+      </c>
+      <c r="FI1" t="inlineStr">
+        <is>
+          <t>CellVolt90</t>
+        </is>
+      </c>
+      <c r="FJ1" t="inlineStr">
+        <is>
+          <t>CellVolt91</t>
+        </is>
+      </c>
+      <c r="FK1" t="inlineStr">
+        <is>
+          <t>CellVolt92</t>
+        </is>
+      </c>
+      <c r="FL1" t="inlineStr">
+        <is>
+          <t>CellVolt93</t>
+        </is>
+      </c>
+      <c r="FM1" t="inlineStr">
+        <is>
+          <t>CellVolt94</t>
+        </is>
+      </c>
+      <c r="FN1" t="inlineStr">
+        <is>
+          <t>CellVolt95</t>
+        </is>
+      </c>
+      <c r="FO1" t="inlineStr">
+        <is>
+          <t>CellVolt96</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1022,7 +1507,7 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
@@ -1163,6 +1648,491 @@
       <c r="BV2" t="inlineStr">
         <is>
           <t>22.50</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DW2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DY2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EA2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t>3.608</t>
+        </is>
+      </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="ES2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="ET2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="EU2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EV2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="EX2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="EY2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="EZ2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FA2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FB2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FC2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="FD2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="FE2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FF2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="FG2" t="inlineStr">
+        <is>
+          <t>3.609</t>
+        </is>
+      </c>
+      <c r="FH2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="FJ2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="FK2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FL2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="FM2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FN2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="FO2" t="inlineStr">
+        <is>
+          <t>3.609</t>
         </is>
       </c>
     </row>

--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FO2"/>
+  <dimension ref="A1:GD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,6 +1278,81 @@
           <t>CellVolt96</t>
         </is>
       </c>
+      <c r="FP1" t="inlineStr">
+        <is>
+          <t>CellVoltRange</t>
+        </is>
+      </c>
+      <c r="FQ1" t="inlineStr">
+        <is>
+          <t>CV_DTC1</t>
+        </is>
+      </c>
+      <c r="FR1" t="inlineStr">
+        <is>
+          <t>CV_DTC2</t>
+        </is>
+      </c>
+      <c r="FS1" t="inlineStr">
+        <is>
+          <t>CV_DTC3</t>
+        </is>
+      </c>
+      <c r="FT1" t="inlineStr">
+        <is>
+          <t>CV_DTC4</t>
+        </is>
+      </c>
+      <c r="FU1" t="inlineStr">
+        <is>
+          <t>CellVoltageMinActual</t>
+        </is>
+      </c>
+      <c r="FV1" t="inlineStr">
+        <is>
+          <t>CellVoltageMaxActual</t>
+        </is>
+      </c>
+      <c r="FW1" t="inlineStr">
+        <is>
+          <t>CellTempMinActual</t>
+        </is>
+      </c>
+      <c r="FX1" t="inlineStr">
+        <is>
+          <t>CellVoltageMaxActual</t>
+        </is>
+      </c>
+      <c r="FY1" t="inlineStr">
+        <is>
+          <t>TempVoltageResult</t>
+        </is>
+      </c>
+      <c r="FZ1" t="inlineStr">
+        <is>
+          <t>PyroCheckCount</t>
+        </is>
+      </c>
+      <c r="GA1" t="inlineStr">
+        <is>
+          <t>PyroMinSet</t>
+        </is>
+      </c>
+      <c r="GB1" t="inlineStr">
+        <is>
+          <t>PyroMaxSet</t>
+        </is>
+      </c>
+      <c r="GC1" t="inlineStr">
+        <is>
+          <t>PyroCheckResult</t>
+        </is>
+      </c>
+      <c r="GD1" t="inlineStr">
+        <is>
+          <t>PyroCheckStatus</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2133,6 +2208,81 @@
       <c r="FO2" t="inlineStr">
         <is>
           <t>3.609</t>
+        </is>
+      </c>
+      <c r="FP2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="FQ2" t="inlineStr">
+        <is>
+          <t>42487</t>
+        </is>
+      </c>
+      <c r="FR2" t="inlineStr">
+        <is>
+          <t>13697024</t>
+        </is>
+      </c>
+      <c r="FS2" t="inlineStr">
+        <is>
+          <t>13828096</t>
+        </is>
+      </c>
+      <c r="FT2" t="inlineStr">
+        <is>
+          <t>15361024</t>
+        </is>
+      </c>
+      <c r="FU2" t="inlineStr">
+        <is>
+          <t>3.608</t>
+        </is>
+      </c>
+      <c r="FV2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="FW2" t="inlineStr">
+        <is>
+          <t>22.500</t>
+        </is>
+      </c>
+      <c r="FX2" t="inlineStr">
+        <is>
+          <t>3.611</t>
+        </is>
+      </c>
+      <c r="FY2" t="inlineStr">
+        <is>
+          <t>"IO"</t>
+        </is>
+      </c>
+      <c r="FZ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="GA2" t="inlineStr">
+        <is>
+          <t>2.00000</t>
+        </is>
+      </c>
+      <c r="GB2" t="inlineStr">
+        <is>
+          <t>4.00000</t>
+        </is>
+      </c>
+      <c r="GC2" t="inlineStr">
+        <is>
+          <t>3.00891</t>
+        </is>
+      </c>
+      <c r="GD2" t="inlineStr">
+        <is>
+          <t>"IO"</t>
         </is>
       </c>
     </row>

--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GD2"/>
+  <dimension ref="A1:GH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,880 +475,900 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>BCMe Flash SW</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>CMC1 Flash SW</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>CMC2 Flash SW</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>CMC3 Flash SW</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>BCMe Begin BL</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>CMC1 Begin BL</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>CMC2 Begin BL</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>CMC3 Begin BL</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>BatConfigPSet</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>VehiclePSet</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>TargetMarket</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>ConfigNamePSet</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>ThermoPSet</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>NameVehiclePSet</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>NameTargetMarket</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>CMC1 HW</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>CMC2 HW</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>CMC3 HW</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>CMC1 Serial</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>CMC2 Serial</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>CMC3 Serial</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>BCMe HW</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>BCMe HW Serial</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>BCMe SW Serial</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>CMC1 HW Serial</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>CMC2 HW Serial</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>CMC3 HW Serial</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>CMC1 SW Serial</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>CMC2 SW Serial</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>CMC3 SW Serial</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>preFlashBCMeSW_Check</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>PostFlashBCMeSW_Check</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>dataSet_download_Check</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>PostDSDL_BCMeSW_Check</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>preFlashCMCSW_Check</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>PostFlashCMCSW_Check</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>SW_Check</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>CellTempMin</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>CellTempMax</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>CellTempRange</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>CellVoltageMin</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>CellVoltageMax</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>CellVoltageRange</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>CellTempCheck</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>CellTemp1</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>CellTemp2</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>CellTemp3</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>CellTemp4</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>CellTemp5</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>CellTemp6</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>CellTemp7</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>CellTemp8</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>CellTemp9</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="BL1" t="inlineStr">
         <is>
           <t>CellTemp10</t>
         </is>
       </c>
-      <c r="BI1" t="inlineStr">
+      <c r="BM1" t="inlineStr">
         <is>
           <t>CellTemp11</t>
         </is>
       </c>
-      <c r="BJ1" t="inlineStr">
+      <c r="BN1" t="inlineStr">
         <is>
           <t>CellTemp12</t>
         </is>
       </c>
-      <c r="BK1" t="inlineStr">
+      <c r="BO1" t="inlineStr">
         <is>
           <t>CellTemp13</t>
         </is>
       </c>
-      <c r="BL1" t="inlineStr">
+      <c r="BP1" t="inlineStr">
         <is>
           <t>CellTemp14</t>
         </is>
       </c>
-      <c r="BM1" t="inlineStr">
+      <c r="BQ1" t="inlineStr">
         <is>
           <t>CellTemp15</t>
         </is>
       </c>
-      <c r="BN1" t="inlineStr">
+      <c r="BR1" t="inlineStr">
         <is>
           <t>CellTemp16</t>
         </is>
       </c>
-      <c r="BO1" t="inlineStr">
+      <c r="BS1" t="inlineStr">
         <is>
           <t>CellTemp17</t>
         </is>
       </c>
-      <c r="BP1" t="inlineStr">
+      <c r="BT1" t="inlineStr">
         <is>
           <t>CellTemp18</t>
         </is>
       </c>
-      <c r="BQ1" t="inlineStr">
+      <c r="BU1" t="inlineStr">
         <is>
           <t>CellTemp19</t>
         </is>
       </c>
-      <c r="BR1" t="inlineStr">
+      <c r="BV1" t="inlineStr">
         <is>
           <t>CellTemp20</t>
         </is>
       </c>
-      <c r="BS1" t="inlineStr">
+      <c r="BW1" t="inlineStr">
         <is>
           <t>CellTemp21</t>
         </is>
       </c>
-      <c r="BT1" t="inlineStr">
+      <c r="BX1" t="inlineStr">
         <is>
           <t>CellTemp22</t>
         </is>
       </c>
-      <c r="BU1" t="inlineStr">
+      <c r="BY1" t="inlineStr">
         <is>
           <t>CellTemp23</t>
         </is>
       </c>
-      <c r="BV1" t="inlineStr">
+      <c r="BZ1" t="inlineStr">
         <is>
           <t>CellTemp24</t>
         </is>
       </c>
-      <c r="BW1" t="inlineStr">
+      <c r="CA1" t="inlineStr">
         <is>
           <t>CellTempRange</t>
         </is>
       </c>
-      <c r="BX1" t="inlineStr">
+      <c r="CB1" t="inlineStr">
         <is>
           <t>CellVolt1</t>
         </is>
       </c>
-      <c r="BY1" t="inlineStr">
+      <c r="CC1" t="inlineStr">
         <is>
           <t>CellVolt2</t>
         </is>
       </c>
-      <c r="BZ1" t="inlineStr">
+      <c r="CD1" t="inlineStr">
         <is>
           <t>CellVolt3</t>
         </is>
       </c>
-      <c r="CA1" t="inlineStr">
+      <c r="CE1" t="inlineStr">
         <is>
           <t>CellVolt4</t>
         </is>
       </c>
-      <c r="CB1" t="inlineStr">
+      <c r="CF1" t="inlineStr">
         <is>
           <t>CellVolt5</t>
         </is>
       </c>
-      <c r="CC1" t="inlineStr">
+      <c r="CG1" t="inlineStr">
         <is>
           <t>CellVolt6</t>
         </is>
       </c>
-      <c r="CD1" t="inlineStr">
+      <c r="CH1" t="inlineStr">
         <is>
           <t>CellVolt7</t>
         </is>
       </c>
-      <c r="CE1" t="inlineStr">
+      <c r="CI1" t="inlineStr">
         <is>
           <t>CellVolt8</t>
         </is>
       </c>
-      <c r="CF1" t="inlineStr">
+      <c r="CJ1" t="inlineStr">
         <is>
           <t>CellVolt9</t>
         </is>
       </c>
-      <c r="CG1" t="inlineStr">
+      <c r="CK1" t="inlineStr">
         <is>
           <t>CellVolt10</t>
         </is>
       </c>
-      <c r="CH1" t="inlineStr">
+      <c r="CL1" t="inlineStr">
         <is>
           <t>CellVolt11</t>
         </is>
       </c>
-      <c r="CI1" t="inlineStr">
+      <c r="CM1" t="inlineStr">
         <is>
           <t>CellVolt12</t>
         </is>
       </c>
-      <c r="CJ1" t="inlineStr">
+      <c r="CN1" t="inlineStr">
         <is>
           <t>CellVolt13</t>
         </is>
       </c>
-      <c r="CK1" t="inlineStr">
+      <c r="CO1" t="inlineStr">
         <is>
           <t>CellVolt14</t>
         </is>
       </c>
-      <c r="CL1" t="inlineStr">
+      <c r="CP1" t="inlineStr">
         <is>
           <t>CellVolt15</t>
         </is>
       </c>
-      <c r="CM1" t="inlineStr">
+      <c r="CQ1" t="inlineStr">
         <is>
           <t>CellVolt16</t>
         </is>
       </c>
-      <c r="CN1" t="inlineStr">
+      <c r="CR1" t="inlineStr">
         <is>
           <t>CellVolt17</t>
         </is>
       </c>
-      <c r="CO1" t="inlineStr">
+      <c r="CS1" t="inlineStr">
         <is>
           <t>CellVolt18</t>
         </is>
       </c>
-      <c r="CP1" t="inlineStr">
+      <c r="CT1" t="inlineStr">
         <is>
           <t>CellVolt19</t>
         </is>
       </c>
-      <c r="CQ1" t="inlineStr">
+      <c r="CU1" t="inlineStr">
         <is>
           <t>CellVolt20</t>
         </is>
       </c>
-      <c r="CR1" t="inlineStr">
+      <c r="CV1" t="inlineStr">
         <is>
           <t>CellVolt21</t>
         </is>
       </c>
-      <c r="CS1" t="inlineStr">
+      <c r="CW1" t="inlineStr">
         <is>
           <t>CellVolt22</t>
         </is>
       </c>
-      <c r="CT1" t="inlineStr">
+      <c r="CX1" t="inlineStr">
         <is>
           <t>CellVolt23</t>
         </is>
       </c>
-      <c r="CU1" t="inlineStr">
+      <c r="CY1" t="inlineStr">
         <is>
           <t>CellVolt24</t>
         </is>
       </c>
-      <c r="CV1" t="inlineStr">
+      <c r="CZ1" t="inlineStr">
         <is>
           <t>CellVolt25</t>
         </is>
       </c>
-      <c r="CW1" t="inlineStr">
+      <c r="DA1" t="inlineStr">
         <is>
           <t>CellVolt26</t>
         </is>
       </c>
-      <c r="CX1" t="inlineStr">
+      <c r="DB1" t="inlineStr">
         <is>
           <t>CellVolt27</t>
         </is>
       </c>
-      <c r="CY1" t="inlineStr">
+      <c r="DC1" t="inlineStr">
         <is>
           <t>CellVolt28</t>
         </is>
       </c>
-      <c r="CZ1" t="inlineStr">
+      <c r="DD1" t="inlineStr">
         <is>
           <t>CellVolt29</t>
         </is>
       </c>
-      <c r="DA1" t="inlineStr">
+      <c r="DE1" t="inlineStr">
         <is>
           <t>CellVolt30</t>
         </is>
       </c>
-      <c r="DB1" t="inlineStr">
+      <c r="DF1" t="inlineStr">
         <is>
           <t>CellVolt31</t>
         </is>
       </c>
-      <c r="DC1" t="inlineStr">
+      <c r="DG1" t="inlineStr">
         <is>
           <t>CellVolt32</t>
         </is>
       </c>
-      <c r="DD1" t="inlineStr">
+      <c r="DH1" t="inlineStr">
         <is>
           <t>CellVolt33</t>
         </is>
       </c>
-      <c r="DE1" t="inlineStr">
+      <c r="DI1" t="inlineStr">
         <is>
           <t>CellVolt34</t>
         </is>
       </c>
-      <c r="DF1" t="inlineStr">
+      <c r="DJ1" t="inlineStr">
         <is>
           <t>CellVolt35</t>
         </is>
       </c>
-      <c r="DG1" t="inlineStr">
+      <c r="DK1" t="inlineStr">
         <is>
           <t>CellVolt36</t>
         </is>
       </c>
-      <c r="DH1" t="inlineStr">
+      <c r="DL1" t="inlineStr">
         <is>
           <t>CellVolt37</t>
         </is>
       </c>
-      <c r="DI1" t="inlineStr">
+      <c r="DM1" t="inlineStr">
         <is>
           <t>CellVolt38</t>
         </is>
       </c>
-      <c r="DJ1" t="inlineStr">
+      <c r="DN1" t="inlineStr">
         <is>
           <t>CellVolt39</t>
         </is>
       </c>
-      <c r="DK1" t="inlineStr">
+      <c r="DO1" t="inlineStr">
         <is>
           <t>CellVolt40</t>
         </is>
       </c>
-      <c r="DL1" t="inlineStr">
+      <c r="DP1" t="inlineStr">
         <is>
           <t>CellVolt41</t>
         </is>
       </c>
-      <c r="DM1" t="inlineStr">
+      <c r="DQ1" t="inlineStr">
         <is>
           <t>CellVolt42</t>
         </is>
       </c>
-      <c r="DN1" t="inlineStr">
+      <c r="DR1" t="inlineStr">
         <is>
           <t>CellVolt43</t>
         </is>
       </c>
-      <c r="DO1" t="inlineStr">
+      <c r="DS1" t="inlineStr">
         <is>
           <t>CellVolt44</t>
         </is>
       </c>
-      <c r="DP1" t="inlineStr">
+      <c r="DT1" t="inlineStr">
         <is>
           <t>CellVolt45</t>
         </is>
       </c>
-      <c r="DQ1" t="inlineStr">
+      <c r="DU1" t="inlineStr">
         <is>
           <t>CellVolt46</t>
         </is>
       </c>
-      <c r="DR1" t="inlineStr">
+      <c r="DV1" t="inlineStr">
         <is>
           <t>CellVolt47</t>
         </is>
       </c>
-      <c r="DS1" t="inlineStr">
+      <c r="DW1" t="inlineStr">
         <is>
           <t>CellVolt48</t>
         </is>
       </c>
-      <c r="DT1" t="inlineStr">
+      <c r="DX1" t="inlineStr">
         <is>
           <t>CellVolt49</t>
         </is>
       </c>
-      <c r="DU1" t="inlineStr">
+      <c r="DY1" t="inlineStr">
         <is>
           <t>CellVolt50</t>
         </is>
       </c>
-      <c r="DV1" t="inlineStr">
+      <c r="DZ1" t="inlineStr">
         <is>
           <t>CellVolt51</t>
         </is>
       </c>
-      <c r="DW1" t="inlineStr">
+      <c r="EA1" t="inlineStr">
         <is>
           <t>CellVolt52</t>
         </is>
       </c>
-      <c r="DX1" t="inlineStr">
+      <c r="EB1" t="inlineStr">
         <is>
           <t>CellVolt53</t>
         </is>
       </c>
-      <c r="DY1" t="inlineStr">
+      <c r="EC1" t="inlineStr">
         <is>
           <t>CellVolt54</t>
         </is>
       </c>
-      <c r="DZ1" t="inlineStr">
+      <c r="ED1" t="inlineStr">
         <is>
           <t>CellVolt55</t>
         </is>
       </c>
-      <c r="EA1" t="inlineStr">
+      <c r="EE1" t="inlineStr">
         <is>
           <t>CellVolt56</t>
         </is>
       </c>
-      <c r="EB1" t="inlineStr">
+      <c r="EF1" t="inlineStr">
         <is>
           <t>CellVolt57</t>
         </is>
       </c>
-      <c r="EC1" t="inlineStr">
+      <c r="EG1" t="inlineStr">
         <is>
           <t>CellVolt58</t>
         </is>
       </c>
-      <c r="ED1" t="inlineStr">
+      <c r="EH1" t="inlineStr">
         <is>
           <t>CellVolt59</t>
         </is>
       </c>
-      <c r="EE1" t="inlineStr">
+      <c r="EI1" t="inlineStr">
         <is>
           <t>CellVolt60</t>
         </is>
       </c>
-      <c r="EF1" t="inlineStr">
+      <c r="EJ1" t="inlineStr">
         <is>
           <t>CellVolt61</t>
         </is>
       </c>
-      <c r="EG1" t="inlineStr">
+      <c r="EK1" t="inlineStr">
         <is>
           <t>CellVolt62</t>
         </is>
       </c>
-      <c r="EH1" t="inlineStr">
+      <c r="EL1" t="inlineStr">
         <is>
           <t>CellVolt63</t>
         </is>
       </c>
-      <c r="EI1" t="inlineStr">
+      <c r="EM1" t="inlineStr">
         <is>
           <t>CellVolt64</t>
         </is>
       </c>
-      <c r="EJ1" t="inlineStr">
+      <c r="EN1" t="inlineStr">
         <is>
           <t>CellVolt65</t>
         </is>
       </c>
-      <c r="EK1" t="inlineStr">
+      <c r="EO1" t="inlineStr">
         <is>
           <t>CellVolt66</t>
         </is>
       </c>
-      <c r="EL1" t="inlineStr">
+      <c r="EP1" t="inlineStr">
         <is>
           <t>CellVolt67</t>
         </is>
       </c>
-      <c r="EM1" t="inlineStr">
+      <c r="EQ1" t="inlineStr">
         <is>
           <t>CellVolt68</t>
         </is>
       </c>
-      <c r="EN1" t="inlineStr">
+      <c r="ER1" t="inlineStr">
         <is>
           <t>CellVolt69</t>
         </is>
       </c>
-      <c r="EO1" t="inlineStr">
+      <c r="ES1" t="inlineStr">
         <is>
           <t>CellVolt70</t>
         </is>
       </c>
-      <c r="EP1" t="inlineStr">
+      <c r="ET1" t="inlineStr">
         <is>
           <t>CellVolt71</t>
         </is>
       </c>
-      <c r="EQ1" t="inlineStr">
+      <c r="EU1" t="inlineStr">
         <is>
           <t>CellVolt72</t>
         </is>
       </c>
-      <c r="ER1" t="inlineStr">
+      <c r="EV1" t="inlineStr">
         <is>
           <t>CellVolt73</t>
         </is>
       </c>
-      <c r="ES1" t="inlineStr">
+      <c r="EW1" t="inlineStr">
         <is>
           <t>CellVolt74</t>
         </is>
       </c>
-      <c r="ET1" t="inlineStr">
+      <c r="EX1" t="inlineStr">
         <is>
           <t>CellVolt75</t>
         </is>
       </c>
-      <c r="EU1" t="inlineStr">
+      <c r="EY1" t="inlineStr">
         <is>
           <t>CellVolt76</t>
         </is>
       </c>
-      <c r="EV1" t="inlineStr">
+      <c r="EZ1" t="inlineStr">
         <is>
           <t>CellVolt77</t>
         </is>
       </c>
-      <c r="EW1" t="inlineStr">
+      <c r="FA1" t="inlineStr">
         <is>
           <t>CellVolt78</t>
         </is>
       </c>
-      <c r="EX1" t="inlineStr">
+      <c r="FB1" t="inlineStr">
         <is>
           <t>CellVolt79</t>
         </is>
       </c>
-      <c r="EY1" t="inlineStr">
+      <c r="FC1" t="inlineStr">
         <is>
           <t>CellVolt80</t>
         </is>
       </c>
-      <c r="EZ1" t="inlineStr">
+      <c r="FD1" t="inlineStr">
         <is>
           <t>CellVolt81</t>
         </is>
       </c>
-      <c r="FA1" t="inlineStr">
+      <c r="FE1" t="inlineStr">
         <is>
           <t>CellVolt82</t>
         </is>
       </c>
-      <c r="FB1" t="inlineStr">
+      <c r="FF1" t="inlineStr">
         <is>
           <t>CellVolt83</t>
         </is>
       </c>
-      <c r="FC1" t="inlineStr">
+      <c r="FG1" t="inlineStr">
         <is>
           <t>CellVolt84</t>
         </is>
       </c>
-      <c r="FD1" t="inlineStr">
+      <c r="FH1" t="inlineStr">
         <is>
           <t>CellVolt85</t>
         </is>
       </c>
-      <c r="FE1" t="inlineStr">
+      <c r="FI1" t="inlineStr">
         <is>
           <t>CellVolt86</t>
         </is>
       </c>
-      <c r="FF1" t="inlineStr">
+      <c r="FJ1" t="inlineStr">
         <is>
           <t>CellVolt87</t>
         </is>
       </c>
-      <c r="FG1" t="inlineStr">
+      <c r="FK1" t="inlineStr">
         <is>
           <t>CellVolt88</t>
         </is>
       </c>
-      <c r="FH1" t="inlineStr">
+      <c r="FL1" t="inlineStr">
         <is>
           <t>CellVolt89</t>
         </is>
       </c>
-      <c r="FI1" t="inlineStr">
+      <c r="FM1" t="inlineStr">
         <is>
           <t>CellVolt90</t>
         </is>
       </c>
-      <c r="FJ1" t="inlineStr">
+      <c r="FN1" t="inlineStr">
         <is>
           <t>CellVolt91</t>
         </is>
       </c>
-      <c r="FK1" t="inlineStr">
+      <c r="FO1" t="inlineStr">
         <is>
           <t>CellVolt92</t>
         </is>
       </c>
-      <c r="FL1" t="inlineStr">
+      <c r="FP1" t="inlineStr">
         <is>
           <t>CellVolt93</t>
         </is>
       </c>
-      <c r="FM1" t="inlineStr">
+      <c r="FQ1" t="inlineStr">
         <is>
           <t>CellVolt94</t>
         </is>
       </c>
-      <c r="FN1" t="inlineStr">
+      <c r="FR1" t="inlineStr">
         <is>
           <t>CellVolt95</t>
         </is>
       </c>
-      <c r="FO1" t="inlineStr">
+      <c r="FS1" t="inlineStr">
         <is>
           <t>CellVolt96</t>
         </is>
       </c>
-      <c r="FP1" t="inlineStr">
+      <c r="FT1" t="inlineStr">
         <is>
           <t>CellVoltRange</t>
         </is>
       </c>
-      <c r="FQ1" t="inlineStr">
+      <c r="FU1" t="inlineStr">
         <is>
           <t>CV_DTC1</t>
         </is>
       </c>
-      <c r="FR1" t="inlineStr">
+      <c r="FV1" t="inlineStr">
         <is>
           <t>CV_DTC2</t>
         </is>
       </c>
-      <c r="FS1" t="inlineStr">
+      <c r="FW1" t="inlineStr">
         <is>
           <t>CV_DTC3</t>
         </is>
       </c>
-      <c r="FT1" t="inlineStr">
+      <c r="FX1" t="inlineStr">
         <is>
           <t>CV_DTC4</t>
         </is>
       </c>
-      <c r="FU1" t="inlineStr">
+      <c r="FY1" t="inlineStr">
         <is>
           <t>CellVoltageMinActual</t>
         </is>
       </c>
-      <c r="FV1" t="inlineStr">
+      <c r="FZ1" t="inlineStr">
         <is>
           <t>CellVoltageMaxActual</t>
         </is>
       </c>
-      <c r="FW1" t="inlineStr">
+      <c r="GA1" t="inlineStr">
         <is>
           <t>CellTempMinActual</t>
         </is>
       </c>
-      <c r="FX1" t="inlineStr">
+      <c r="GB1" t="inlineStr">
         <is>
           <t>CellVoltageMaxActual</t>
         </is>
       </c>
-      <c r="FY1" t="inlineStr">
+      <c r="GC1" t="inlineStr">
         <is>
           <t>TempVoltageResult</t>
         </is>
       </c>
-      <c r="FZ1" t="inlineStr">
+      <c r="GD1" t="inlineStr">
         <is>
           <t>PyroCheckCount</t>
         </is>
       </c>
-      <c r="GA1" t="inlineStr">
+      <c r="GE1" t="inlineStr">
         <is>
           <t>PyroMinSet</t>
         </is>
       </c>
-      <c r="GB1" t="inlineStr">
+      <c r="GF1" t="inlineStr">
         <is>
           <t>PyroMaxSet</t>
         </is>
       </c>
-      <c r="GC1" t="inlineStr">
+      <c r="GG1" t="inlineStr">
         <is>
           <t>PyroCheckResult</t>
         </is>
       </c>
-      <c r="GD1" t="inlineStr">
+      <c r="GH1" t="inlineStr">
         <is>
           <t>PyroCheckStatus</t>
         </is>
@@ -1407,374 +1427,374 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>5022</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>1525</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1525</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>1525</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>0107</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>0896</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>0107</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>82K096S3PSK0</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>DEFAULTTHERM</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>SK07809603KA</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>DEFAULTYYYYY</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>005</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>005</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>005</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>00000027042102910102</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>00000026042102910156</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>00000008042102910235</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>010</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>0Z1915184D</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>0Z1915184G</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0Z1915140D</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>0Z1915140D</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>0Z1915140D</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>0Z1915140F</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>0Z1915140F</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>0Z1915140F</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>"IO"</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
         <is>
           <t>40.00</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AX2" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
         <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="AV2" t="inlineStr">
+      <c r="AZ2" t="inlineStr">
         <is>
           <t>4.20</t>
         </is>
       </c>
-      <c r="AW2" t="inlineStr">
+      <c r="BA2" t="inlineStr">
         <is>
           <t>50.00</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="BB2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr">
+      <c r="BC2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="AZ2" t="inlineStr">
+      <c r="BD2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr">
+      <c r="BE2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr">
+      <c r="BF2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BC2" t="inlineStr">
+      <c r="BG2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BD2" t="inlineStr">
+      <c r="BH2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BE2" t="inlineStr">
+      <c r="BI2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr">
+      <c r="BJ2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BG2" t="inlineStr">
+      <c r="BK2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BH2" t="inlineStr">
+      <c r="BL2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BI2" t="inlineStr">
+      <c r="BM2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BJ2" t="inlineStr">
+      <c r="BN2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BK2" t="inlineStr">
+      <c r="BO2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BL2" t="inlineStr">
+      <c r="BP2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BM2" t="inlineStr">
+      <c r="BQ2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BN2" t="inlineStr">
+      <c r="BR2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BO2" t="inlineStr">
+      <c r="BS2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BP2" t="inlineStr">
+      <c r="BT2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BQ2" t="inlineStr">
+      <c r="BU2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BR2" t="inlineStr">
+      <c r="BV2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BS2" t="inlineStr">
+      <c r="BW2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BT2" t="inlineStr">
+      <c r="BX2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BU2" t="inlineStr">
+      <c r="BY2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BV2" t="inlineStr">
+      <c r="BZ2" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="BW2" t="inlineStr">
+      <c r="CA2" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="BX2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="BY2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="BZ2" t="inlineStr">
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="CA2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="CB2" t="inlineStr">
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="CC2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="CD2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="CE2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="CF2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
       <c r="CG2" t="inlineStr">
         <is>
           <t>3.610</t>
@@ -1782,39 +1802,39 @@
       </c>
       <c r="CH2" t="inlineStr">
         <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="CI2" t="inlineStr">
+      <c r="CM2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="CJ2" t="inlineStr">
+      <c r="CN2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="CK2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="CL2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="CM2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="CN2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
       <c r="CO2" t="inlineStr">
         <is>
           <t>3.610</t>
@@ -1837,39 +1857,39 @@
       </c>
       <c r="CS2" t="inlineStr">
         <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="CT2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="CU2" t="inlineStr">
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="CV2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="CW2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="CX2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="CY2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
       <c r="CZ2" t="inlineStr">
         <is>
           <t>3.610</t>
@@ -1912,375 +1932,395 @@
       </c>
       <c r="DH2" t="inlineStr">
         <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="DI2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="DJ2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="DK2" t="inlineStr">
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DO2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="DL2" t="inlineStr">
+      <c r="DP2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="DM2" t="inlineStr">
+      <c r="DQ2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="DN2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="DO2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="DP2" t="inlineStr">
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="DQ2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="DR2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="DS2" t="inlineStr">
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DW2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="DT2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="DU2" t="inlineStr">
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="DY2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="DV2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="DW2" t="inlineStr">
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EA2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="DX2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="DY2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="DZ2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="EA2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
       <c r="EB2" t="inlineStr">
         <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EC2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EF2" t="inlineStr">
+        <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="EC2" t="inlineStr">
+      <c r="EG2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="ED2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="EE2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="EF2" t="inlineStr">
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EJ2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="EG2" t="inlineStr">
+      <c r="EK2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="EH2" t="inlineStr">
+      <c r="EL2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="EI2" t="inlineStr">
+      <c r="EM2" t="inlineStr">
         <is>
           <t>3.608</t>
         </is>
       </c>
-      <c r="EJ2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="EK2" t="inlineStr">
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="EL2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="EM2" t="inlineStr">
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EQ2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="EN2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="EO2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="EP2" t="inlineStr">
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="ES2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="ET2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="EQ2" t="inlineStr">
+      <c r="EU2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="ER2" t="inlineStr">
+      <c r="EV2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="ES2" t="inlineStr">
+      <c r="EW2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="ET2" t="inlineStr">
+      <c r="EX2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="EU2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="EV2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="EW2" t="inlineStr">
+      <c r="EY2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="EZ2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FA2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="EX2" t="inlineStr">
+      <c r="FB2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="EY2" t="inlineStr">
+      <c r="FC2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="EZ2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="FA2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="FB2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="FC2" t="inlineStr">
+      <c r="FD2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FE2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FF2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FG2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="FD2" t="inlineStr">
+      <c r="FH2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="FE2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="FF2" t="inlineStr">
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FJ2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="FG2" t="inlineStr">
+      <c r="FK2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="FH2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="FI2" t="inlineStr">
+      <c r="FL2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FM2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="FJ2" t="inlineStr">
+      <c r="FN2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="FK2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="FL2" t="inlineStr">
+      <c r="FO2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FP2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="FM2" t="inlineStr">
-        <is>
-          <t>3.610</t>
-        </is>
-      </c>
-      <c r="FN2" t="inlineStr">
+      <c r="FQ2" t="inlineStr">
+        <is>
+          <t>3.610</t>
+        </is>
+      </c>
+      <c r="FR2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="FO2" t="inlineStr">
+      <c r="FS2" t="inlineStr">
         <is>
           <t>3.609</t>
         </is>
       </c>
-      <c r="FP2" t="inlineStr">
+      <c r="FT2" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="FQ2" t="inlineStr">
+      <c r="FU2" t="inlineStr">
         <is>
           <t>42487</t>
         </is>
       </c>
-      <c r="FR2" t="inlineStr">
+      <c r="FV2" t="inlineStr">
         <is>
           <t>13697024</t>
         </is>
       </c>
-      <c r="FS2" t="inlineStr">
+      <c r="FW2" t="inlineStr">
         <is>
           <t>13828096</t>
         </is>
       </c>
-      <c r="FT2" t="inlineStr">
+      <c r="FX2" t="inlineStr">
         <is>
           <t>15361024</t>
         </is>
       </c>
-      <c r="FU2" t="inlineStr">
+      <c r="FY2" t="inlineStr">
         <is>
           <t>3.608</t>
         </is>
       </c>
-      <c r="FV2" t="inlineStr">
+      <c r="FZ2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="FW2" t="inlineStr">
+      <c r="GA2" t="inlineStr">
         <is>
           <t>22.500</t>
         </is>
       </c>
-      <c r="FX2" t="inlineStr">
+      <c r="GB2" t="inlineStr">
         <is>
           <t>3.611</t>
         </is>
       </c>
-      <c r="FY2" t="inlineStr">
+      <c r="GC2" t="inlineStr">
         <is>
           <t>"IO"</t>
         </is>
       </c>
-      <c r="FZ2" t="inlineStr">
+      <c r="GD2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="GA2" t="inlineStr">
+      <c r="GE2" t="inlineStr">
         <is>
           <t>2.00000</t>
         </is>
       </c>
-      <c r="GB2" t="inlineStr">
+      <c r="GF2" t="inlineStr">
         <is>
           <t>4.00000</t>
         </is>
       </c>
-      <c r="GC2" t="inlineStr">
+      <c r="GG2" t="inlineStr">
         <is>
           <t>3.00891</t>
         </is>
       </c>
-      <c r="GD2" t="inlineStr">
+      <c r="GH2" t="inlineStr">
         <is>
           <t>"IO"</t>
         </is>

--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GH2"/>
+  <dimension ref="A1:GY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,6 +1373,91 @@
           <t>PyroCheckStatus</t>
         </is>
       </c>
+      <c r="GI1" t="inlineStr">
+        <is>
+          <t>Pilot Line Check</t>
+        </is>
+      </c>
+      <c r="GJ1" t="inlineStr">
+        <is>
+          <t>Klemme 30 Check</t>
+        </is>
+      </c>
+      <c r="GK1" t="inlineStr">
+        <is>
+          <t>R1 MBE Set</t>
+        </is>
+      </c>
+      <c r="GL1" t="inlineStr">
+        <is>
+          <t>R2 MBE Set</t>
+        </is>
+      </c>
+      <c r="GM1" t="inlineStr">
+        <is>
+          <t>R1 Set</t>
+        </is>
+      </c>
+      <c r="GN1" t="inlineStr">
+        <is>
+          <t>R2 Set</t>
+        </is>
+      </c>
+      <c r="GO1" t="inlineStr">
+        <is>
+          <t>Iso Res 1 Setpoint</t>
+        </is>
+      </c>
+      <c r="GP1" t="inlineStr">
+        <is>
+          <t>Iso Res 2 Setpoint</t>
+        </is>
+      </c>
+      <c r="GQ1" t="inlineStr">
+        <is>
+          <t>HV Min Iso</t>
+        </is>
+      </c>
+      <c r="GR1" t="inlineStr">
+        <is>
+          <t>HV Pos Iso</t>
+        </is>
+      </c>
+      <c r="GS1" t="inlineStr">
+        <is>
+          <t>Iso Result</t>
+        </is>
+      </c>
+      <c r="GT1" t="inlineStr">
+        <is>
+          <t>Voltage Set</t>
+        </is>
+      </c>
+      <c r="GU1" t="inlineStr">
+        <is>
+          <t>Current Leak Min</t>
+        </is>
+      </c>
+      <c r="GV1" t="inlineStr">
+        <is>
+          <t>Current Leak Max</t>
+        </is>
+      </c>
+      <c r="GW1" t="inlineStr">
+        <is>
+          <t>Voltage Act</t>
+        </is>
+      </c>
+      <c r="GX1" t="inlineStr">
+        <is>
+          <t>Current Leak Act</t>
+        </is>
+      </c>
+      <c r="GY1" t="inlineStr">
+        <is>
+          <t>Dielectric Result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2321,6 +2406,91 @@
         </is>
       </c>
       <c r="GH2" t="inlineStr">
+        <is>
+          <t>"IO"</t>
+        </is>
+      </c>
+      <c r="GI2" t="inlineStr">
+        <is>
+          <t>"IO"</t>
+        </is>
+      </c>
+      <c r="GJ2" t="inlineStr">
+        <is>
+          <t>"IO"</t>
+        </is>
+      </c>
+      <c r="GK2" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="GL2" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="GM2" t="inlineStr">
+        <is>
+          <t>600.00</t>
+        </is>
+      </c>
+      <c r="GN2" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="GO2" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="GP2" t="inlineStr">
+        <is>
+          <t>2500.00</t>
+        </is>
+      </c>
+      <c r="GQ2" t="inlineStr">
+        <is>
+          <t>10000.00</t>
+        </is>
+      </c>
+      <c r="GR2" t="inlineStr">
+        <is>
+          <t>10000.00</t>
+        </is>
+      </c>
+      <c r="GS2" t="inlineStr">
+        <is>
+          <t>"IO"</t>
+        </is>
+      </c>
+      <c r="GT2" t="inlineStr">
+        <is>
+          <t>2150.00</t>
+        </is>
+      </c>
+      <c r="GU2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="GV2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="GW2" t="inlineStr">
+        <is>
+          <t>2151.00</t>
+        </is>
+      </c>
+      <c r="GX2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="GY2" t="inlineStr">
         <is>
           <t>"IO"</t>
         </is>

--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GY2"/>
+  <dimension ref="A1:HA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,6 +1458,16 @@
           <t>Dielectric Result</t>
         </is>
       </c>
+      <c r="GZ1" t="inlineStr">
+        <is>
+          <t>Operating States Result</t>
+        </is>
+      </c>
+      <c r="HA1" t="inlineStr">
+        <is>
+          <t>Final Result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2491,6 +2501,16 @@
         </is>
       </c>
       <c r="GY2" t="inlineStr">
+        <is>
+          <t>"IO"</t>
+        </is>
+      </c>
+      <c r="GZ2" t="inlineStr">
+        <is>
+          <t>"IO"</t>
+        </is>
+      </c>
+      <c r="HA2" t="inlineStr">
         <is>
           <t>"IO"</t>
         </is>
